--- a/ApartoBotFramework/UserInfo.xlsx
+++ b/ApartoBotFramework/UserInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P2 Aparto BOT\BlankProcess1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\220425-UiPath\project2\ApartoBotFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85177BCC-E525-47F1-8EB0-4616F3F02295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1871BB9-5606-4EF4-8249-5AAA4275FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1208" yWindow="120" windowWidth="17699" windowHeight="12383" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="405" windowWidth="16080" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Max Price</t>
   </si>
   <si>
-    <t>Trianna</t>
-  </si>
-  <si>
     <t>Test1@realtor.com</t>
   </si>
   <si>
@@ -60,7 +57,16 @@
     <t>Min Price</t>
   </si>
   <si>
-    <t>Phoenix, AZ</t>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Hartford, CT</t>
+  </si>
+  <si>
+    <t>Customer Excel Sheet</t>
+  </si>
+  <si>
+    <t>"Mike Aparto Sheet.xlsx"</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -390,9 +396,10 @@
     <col min="1" max="4" width="9.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.9296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,27 +419,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>900</v>
@@ -441,7 +451,10 @@
         <v>1000</v>
       </c>
       <c r="H2" s="1">
-        <v>1200</v>
+        <v>1500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
